--- a/data_year/zb/对外经济贸易/按行业分对外直接投资/对外直接投资流量.xlsx
+++ b/data_year/zb/对外经济贸易/按行业分对外直接投资/对外直接投资流量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,911 +538,783 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406548</v>
+        <v>565545</v>
       </c>
       <c r="C2" t="n">
-        <v>955</v>
+        <v>21820</v>
       </c>
       <c r="D2" t="n">
-        <v>30384</v>
+        <v>50612</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>27171</v>
+        <v>53398</v>
       </c>
       <c r="G2" t="n">
-        <v>212650</v>
+        <v>466417</v>
       </c>
       <c r="H2" t="n">
-        <v>75</v>
+        <v>3352</v>
       </c>
       <c r="I2" t="n">
-        <v>2650609</v>
+        <v>6881131</v>
       </c>
       <c r="J2" t="n">
-        <v>7621</v>
+        <v>32105</v>
       </c>
       <c r="K2" t="n">
-        <v>32943</v>
+        <v>162826</v>
       </c>
       <c r="L2" t="n">
-        <v>90852</v>
+        <v>161308</v>
       </c>
       <c r="M2" t="n">
-        <v>660418</v>
+        <v>672878</v>
       </c>
       <c r="N2" t="n">
-        <v>892</v>
+        <v>200</v>
       </c>
       <c r="O2" t="n">
-        <v>510</v>
+        <v>18648</v>
       </c>
       <c r="P2" t="n">
-        <v>271</v>
+        <v>7198</v>
       </c>
       <c r="Q2" t="n">
-        <v>15138</v>
+        <v>100643</v>
       </c>
       <c r="R2" t="n">
-        <v>30390</v>
+        <v>101886</v>
       </c>
       <c r="S2" t="n">
-        <v>560734</v>
+        <v>3028070</v>
       </c>
       <c r="T2" t="n">
-        <v>406277</v>
+        <v>571486</v>
       </c>
       <c r="U2" t="n">
-        <v>166780</v>
+        <v>862739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265574</v>
+        <v>256392</v>
       </c>
       <c r="C3" t="n">
-        <v>2950</v>
+        <v>11693</v>
       </c>
       <c r="D3" t="n">
-        <v>29875</v>
+        <v>77646</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>17183</v>
+        <v>79775</v>
       </c>
       <c r="G3" t="n">
-        <v>176603</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>704118</v>
+      </c>
+      <c r="H3" t="n">
+        <v>639</v>
+      </c>
       <c r="I3" t="n">
-        <v>5590717</v>
+        <v>7465404</v>
       </c>
       <c r="J3" t="n">
-        <v>16536</v>
+        <v>32863</v>
       </c>
       <c r="K3" t="n">
-        <v>73299</v>
+        <v>164817</v>
       </c>
       <c r="L3" t="n">
-        <v>33901</v>
+        <v>197442</v>
       </c>
       <c r="M3" t="n">
-        <v>651413</v>
+        <v>1032412</v>
       </c>
       <c r="N3" t="n">
-        <v>154</v>
+        <v>2008</v>
       </c>
       <c r="O3" t="n">
-        <v>2180</v>
+        <v>10498</v>
       </c>
       <c r="P3" t="n">
-        <v>14145</v>
+        <v>25529</v>
       </c>
       <c r="Q3" t="n">
-        <v>131349</v>
+        <v>187543</v>
       </c>
       <c r="R3" t="n">
-        <v>16681</v>
+        <v>70658</v>
       </c>
       <c r="S3" t="n">
-        <v>2171723</v>
+        <v>2559726</v>
       </c>
       <c r="T3" t="n">
-        <v>582351</v>
+        <v>1444595</v>
       </c>
       <c r="U3" t="n">
-        <v>1404800</v>
+        <v>607050</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206752</v>
+        <v>298814</v>
       </c>
       <c r="C4" t="n">
-        <v>7487</v>
+        <v>13663</v>
       </c>
       <c r="D4" t="n">
-        <v>27813</v>
+        <v>124014</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>34279</v>
+        <v>146138</v>
       </c>
       <c r="G4" t="n">
-        <v>224097</v>
+        <v>866741</v>
       </c>
       <c r="H4" t="n">
-        <v>191</v>
+        <v>538</v>
       </c>
       <c r="I4" t="n">
-        <v>5652899</v>
+        <v>8780353</v>
       </c>
       <c r="J4" t="n">
-        <v>26773</v>
+        <v>89040</v>
       </c>
       <c r="K4" t="n">
-        <v>36022</v>
+        <v>324536</v>
       </c>
       <c r="L4" t="n">
-        <v>93814</v>
+        <v>201813</v>
       </c>
       <c r="M4" t="n">
-        <v>613575</v>
+        <v>1304854</v>
       </c>
       <c r="N4" t="n">
-        <v>245</v>
+        <v>10283</v>
       </c>
       <c r="O4" t="n">
-        <v>1976</v>
+        <v>19634</v>
       </c>
       <c r="P4" t="n">
-        <v>434</v>
+        <v>3357</v>
       </c>
       <c r="Q4" t="n">
-        <v>46807</v>
+        <v>193534</v>
       </c>
       <c r="R4" t="n">
-        <v>77573</v>
+        <v>147850</v>
       </c>
       <c r="S4" t="n">
-        <v>2047378</v>
+        <v>2674080</v>
       </c>
       <c r="T4" t="n">
-        <v>1334309</v>
+        <v>1354380</v>
       </c>
       <c r="U4" t="n">
-        <v>873374</v>
+        <v>1007084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>565545</v>
+        <v>330723</v>
       </c>
       <c r="C5" t="n">
-        <v>21820</v>
+        <v>8216</v>
       </c>
       <c r="D5" t="n">
-        <v>50612</v>
+        <v>140088</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>53398</v>
+        <v>181313</v>
       </c>
       <c r="G5" t="n">
-        <v>466417</v>
+        <v>719715</v>
       </c>
       <c r="H5" t="n">
-        <v>3352</v>
+        <v>1703</v>
       </c>
       <c r="I5" t="n">
-        <v>6881131</v>
+        <v>10784371</v>
       </c>
       <c r="J5" t="n">
-        <v>32105</v>
+        <v>112918</v>
       </c>
       <c r="K5" t="n">
-        <v>162826</v>
+        <v>436430</v>
       </c>
       <c r="L5" t="n">
-        <v>161308</v>
+        <v>395251</v>
       </c>
       <c r="M5" t="n">
-        <v>672878</v>
+        <v>1464682</v>
       </c>
       <c r="N5" t="n">
-        <v>200</v>
+        <v>3566</v>
       </c>
       <c r="O5" t="n">
-        <v>18648</v>
+        <v>31085</v>
       </c>
       <c r="P5" t="n">
-        <v>7198</v>
+        <v>14489</v>
       </c>
       <c r="Q5" t="n">
-        <v>100643</v>
+        <v>68043</v>
       </c>
       <c r="R5" t="n">
-        <v>101886</v>
+        <v>179221</v>
       </c>
       <c r="S5" t="n">
-        <v>3028070</v>
+        <v>2705617</v>
       </c>
       <c r="T5" t="n">
-        <v>571486</v>
+        <v>2480779</v>
       </c>
       <c r="U5" t="n">
-        <v>862739</v>
+        <v>1510532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256392</v>
+        <v>417472</v>
       </c>
       <c r="C6" t="n">
-        <v>11693</v>
+        <v>24474</v>
       </c>
       <c r="D6" t="n">
-        <v>77646</v>
+        <v>316965</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>79775</v>
+        <v>203543</v>
       </c>
       <c r="G6" t="n">
-        <v>704118</v>
+        <v>958360</v>
       </c>
       <c r="H6" t="n">
-        <v>639</v>
+        <v>15338</v>
       </c>
       <c r="I6" t="n">
-        <v>7465404</v>
+        <v>12311986</v>
       </c>
       <c r="J6" t="n">
-        <v>32863</v>
+        <v>165175</v>
       </c>
       <c r="K6" t="n">
-        <v>164817</v>
+        <v>339600</v>
       </c>
       <c r="L6" t="n">
-        <v>197442</v>
+        <v>660457</v>
       </c>
       <c r="M6" t="n">
-        <v>1032412</v>
+        <v>1829071</v>
       </c>
       <c r="N6" t="n">
-        <v>2008</v>
+        <v>1355</v>
       </c>
       <c r="O6" t="n">
-        <v>10498</v>
+        <v>51915</v>
       </c>
       <c r="P6" t="n">
-        <v>25529</v>
+        <v>55139</v>
       </c>
       <c r="Q6" t="n">
-        <v>187543</v>
+        <v>176463</v>
       </c>
       <c r="R6" t="n">
-        <v>70658</v>
+        <v>166879</v>
       </c>
       <c r="S6" t="n">
-        <v>2559726</v>
+        <v>3683059</v>
       </c>
       <c r="T6" t="n">
-        <v>1444595</v>
+        <v>1654939</v>
       </c>
       <c r="U6" t="n">
-        <v>607050</v>
+        <v>1591782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298814</v>
+        <v>272682.4251</v>
       </c>
       <c r="C7" t="n">
-        <v>13663</v>
+        <v>72318.77740000001</v>
       </c>
       <c r="D7" t="n">
-        <v>124014</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>682036.6612</v>
+      </c>
+      <c r="E7" t="n">
+        <v>160</v>
+      </c>
       <c r="F7" t="n">
-        <v>146138</v>
+        <v>257207.5061</v>
       </c>
       <c r="G7" t="n">
-        <v>866741</v>
+        <v>1998629.443</v>
       </c>
       <c r="H7" t="n">
-        <v>538</v>
+        <v>8387.33</v>
       </c>
       <c r="I7" t="n">
-        <v>8780353</v>
+        <v>14566715</v>
       </c>
       <c r="J7" t="n">
-        <v>89040</v>
+        <v>159948.1163</v>
       </c>
       <c r="K7" t="n">
-        <v>324536</v>
+        <v>373501.2814</v>
       </c>
       <c r="L7" t="n">
-        <v>201813</v>
+        <v>778655.7529</v>
       </c>
       <c r="M7" t="n">
-        <v>1304854</v>
+        <v>1921785.2672</v>
       </c>
       <c r="N7" t="n">
-        <v>10283</v>
+        <v>6228.6128</v>
       </c>
       <c r="O7" t="n">
-        <v>19634</v>
+        <v>174750.761</v>
       </c>
       <c r="P7" t="n">
-        <v>3357</v>
+        <v>136773.1438</v>
       </c>
       <c r="Q7" t="n">
-        <v>193534</v>
+        <v>213507.0343</v>
       </c>
       <c r="R7" t="n">
-        <v>147850</v>
+        <v>334540.4555</v>
       </c>
       <c r="S7" t="n">
-        <v>2674080</v>
+        <v>3625787.7811</v>
       </c>
       <c r="T7" t="n">
-        <v>1354380</v>
+        <v>1125261.3396</v>
       </c>
       <c r="U7" t="n">
-        <v>1007084</v>
+        <v>2424553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330723</v>
+        <v>167881</v>
       </c>
       <c r="C8" t="n">
-        <v>8216</v>
+        <v>162549</v>
       </c>
       <c r="D8" t="n">
-        <v>140088</v>
+        <v>1866022</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>181313</v>
+        <v>328715</v>
       </c>
       <c r="G8" t="n">
-        <v>719715</v>
+        <v>2904872</v>
       </c>
       <c r="H8" t="n">
-        <v>1703</v>
+        <v>48719</v>
       </c>
       <c r="I8" t="n">
-        <v>10784371</v>
+        <v>19614943</v>
       </c>
       <c r="J8" t="n">
-        <v>112918</v>
+        <v>542429</v>
       </c>
       <c r="K8" t="n">
-        <v>436430</v>
+        <v>439248</v>
       </c>
       <c r="L8" t="n">
-        <v>395251</v>
+        <v>1524674</v>
       </c>
       <c r="M8" t="n">
-        <v>1464682</v>
+        <v>2089417</v>
       </c>
       <c r="N8" t="n">
-        <v>3566</v>
+        <v>28452</v>
       </c>
       <c r="O8" t="n">
-        <v>31085</v>
+        <v>386869</v>
       </c>
       <c r="P8" t="n">
-        <v>14489</v>
+        <v>84705</v>
       </c>
       <c r="Q8" t="n">
-        <v>68043</v>
+        <v>353599</v>
       </c>
       <c r="R8" t="n">
-        <v>179221</v>
+        <v>423806</v>
       </c>
       <c r="S8" t="n">
-        <v>2705617</v>
+        <v>6578157</v>
       </c>
       <c r="T8" t="n">
-        <v>2480779</v>
+        <v>193020</v>
       </c>
       <c r="U8" t="n">
-        <v>1510532</v>
+        <v>1491809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417472</v>
+        <v>546792</v>
       </c>
       <c r="C9" t="n">
-        <v>24474</v>
+        <v>-18509</v>
       </c>
       <c r="D9" t="n">
-        <v>316965</v>
+        <v>443024</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>203543</v>
+        <v>250769</v>
       </c>
       <c r="G9" t="n">
-        <v>958360</v>
+        <v>2950737</v>
       </c>
       <c r="H9" t="n">
-        <v>15338</v>
+        <v>35267</v>
       </c>
       <c r="I9" t="n">
-        <v>12311986</v>
+        <v>15828830</v>
       </c>
       <c r="J9" t="n">
-        <v>165175</v>
+        <v>186526</v>
       </c>
       <c r="K9" t="n">
-        <v>339600</v>
+        <v>652772</v>
       </c>
       <c r="L9" t="n">
-        <v>660457</v>
+        <v>679506</v>
       </c>
       <c r="M9" t="n">
-        <v>1829071</v>
+        <v>2631102</v>
       </c>
       <c r="N9" t="n">
-        <v>1355</v>
+        <v>13372</v>
       </c>
       <c r="O9" t="n">
-        <v>51915</v>
+        <v>26401</v>
       </c>
       <c r="P9" t="n">
-        <v>55139</v>
+        <v>21892</v>
       </c>
       <c r="Q9" t="n">
-        <v>176463</v>
+        <v>234401</v>
       </c>
       <c r="R9" t="n">
-        <v>166879</v>
+        <v>239065</v>
       </c>
       <c r="S9" t="n">
-        <v>3683059</v>
+        <v>5427321</v>
       </c>
       <c r="T9" t="n">
-        <v>1654939</v>
+        <v>-370152</v>
       </c>
       <c r="U9" t="n">
-        <v>1591782</v>
+        <v>1878544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272682.4251</v>
+        <v>516056.81</v>
       </c>
       <c r="C10" t="n">
-        <v>72318.77740000001</v>
+        <v>135395.91</v>
       </c>
       <c r="D10" t="n">
-        <v>682036.6612</v>
-      </c>
-      <c r="E10" t="n">
-        <v>160</v>
-      </c>
+        <v>563187.33</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>257207.5061</v>
+        <v>256258.28</v>
       </c>
       <c r="G10" t="n">
-        <v>1998629.443</v>
+        <v>1910768.24</v>
       </c>
       <c r="H10" t="n">
-        <v>8387.33</v>
+        <v>52480.29</v>
       </c>
       <c r="I10" t="n">
-        <v>14566715</v>
+        <v>14303730.81</v>
       </c>
       <c r="J10" t="n">
-        <v>159948.1163</v>
+        <v>222822.49</v>
       </c>
       <c r="K10" t="n">
-        <v>373501.2814</v>
+        <v>361847.63</v>
       </c>
       <c r="L10" t="n">
-        <v>778655.7529</v>
+        <v>306599.95</v>
       </c>
       <c r="M10" t="n">
-        <v>1921785.2672</v>
+        <v>1223790.96</v>
       </c>
       <c r="N10" t="n">
-        <v>6228.6128</v>
+        <v>57301.66</v>
       </c>
       <c r="O10" t="n">
-        <v>174750.761</v>
+        <v>116586.23</v>
       </c>
       <c r="P10" t="n">
-        <v>136773.1438</v>
+        <v>17862.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>213507.0343</v>
+        <v>470246.27</v>
       </c>
       <c r="R10" t="n">
-        <v>334540.4555</v>
+        <v>380199.2</v>
       </c>
       <c r="S10" t="n">
-        <v>3625787.7811</v>
+        <v>5077812.76</v>
       </c>
       <c r="T10" t="n">
-        <v>1125261.3396</v>
+        <v>462794.09</v>
       </c>
       <c r="U10" t="n">
-        <v>2424553</v>
+        <v>2171720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167881</v>
+        <v>387962.29</v>
       </c>
       <c r="C11" t="n">
-        <v>162549</v>
+        <v>60397.86</v>
       </c>
       <c r="D11" t="n">
-        <v>1866022</v>
+        <v>547793.6899999999</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>328715</v>
+        <v>243920.13</v>
       </c>
       <c r="G11" t="n">
-        <v>2904872</v>
+        <v>2024180.91</v>
       </c>
       <c r="H11" t="n">
-        <v>48719</v>
+        <v>22717.03</v>
       </c>
       <c r="I11" t="n">
-        <v>19614943</v>
+        <v>13690756</v>
       </c>
       <c r="J11" t="n">
-        <v>542429</v>
+        <v>167337.7</v>
       </c>
       <c r="K11" t="n">
-        <v>439248</v>
+        <v>377984.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1524674</v>
+        <v>341838.74</v>
       </c>
       <c r="M11" t="n">
-        <v>2089417</v>
+        <v>1947107.84</v>
       </c>
       <c r="N11" t="n">
-        <v>28452</v>
+        <v>64880.42</v>
       </c>
       <c r="O11" t="n">
-        <v>386869</v>
+        <v>52351.85</v>
       </c>
       <c r="P11" t="n">
-        <v>84705</v>
+        <v>26988.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>353599</v>
+        <v>386871.72</v>
       </c>
       <c r="R11" t="n">
-        <v>423806</v>
+        <v>343163.48</v>
       </c>
       <c r="S11" t="n">
-        <v>6578157</v>
+        <v>4187507.55</v>
       </c>
       <c r="T11" t="n">
-        <v>193020</v>
+        <v>512822.81</v>
       </c>
       <c r="U11" t="n">
-        <v>1491809</v>
+        <v>1994929.487905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>546792</v>
+        <v>623320</v>
       </c>
       <c r="C12" t="n">
-        <v>-18509</v>
+        <v>11841</v>
       </c>
       <c r="D12" t="n">
-        <v>443024</v>
+        <v>918718</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>250769</v>
+        <v>107864</v>
       </c>
       <c r="G12" t="n">
-        <v>2950737</v>
+        <v>2583821</v>
       </c>
       <c r="H12" t="n">
-        <v>35267</v>
+        <v>63767</v>
       </c>
       <c r="I12" t="n">
-        <v>15828830</v>
+        <v>15371026</v>
       </c>
       <c r="J12" t="n">
-        <v>186526</v>
+        <v>216078</v>
       </c>
       <c r="K12" t="n">
-        <v>652772</v>
+        <v>809455</v>
       </c>
       <c r="L12" t="n">
-        <v>679506</v>
+        <v>518603</v>
       </c>
       <c r="M12" t="n">
-        <v>2631102</v>
+        <v>2299764</v>
       </c>
       <c r="N12" t="n">
-        <v>13372</v>
+        <v>13004</v>
       </c>
       <c r="O12" t="n">
-        <v>26401</v>
+        <v>-213383</v>
       </c>
       <c r="P12" t="n">
-        <v>21892</v>
+        <v>15671</v>
       </c>
       <c r="Q12" t="n">
-        <v>234401</v>
+        <v>577031</v>
       </c>
       <c r="R12" t="n">
-        <v>239065</v>
+        <v>373465</v>
       </c>
       <c r="S12" t="n">
-        <v>5427321</v>
+        <v>3872562</v>
       </c>
       <c r="T12" t="n">
-        <v>-370152</v>
+        <v>613126</v>
       </c>
       <c r="U12" t="n">
-        <v>1878544</v>
+        <v>1966318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516056.81</v>
+        <v>1222621</v>
       </c>
       <c r="C13" t="n">
-        <v>135395.91</v>
+        <v>26933</v>
       </c>
       <c r="D13" t="n">
-        <v>563187.33</v>
+        <v>513591</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>256258.28</v>
+        <v>93075</v>
       </c>
       <c r="G13" t="n">
-        <v>1910768.24</v>
+        <v>2686673</v>
       </c>
       <c r="H13" t="n">
-        <v>52480.29</v>
+        <v>33877</v>
       </c>
       <c r="I13" t="n">
-        <v>14303730.81</v>
+        <v>17881932</v>
       </c>
       <c r="J13" t="n">
-        <v>222822.49</v>
+        <v>180948</v>
       </c>
       <c r="K13" t="n">
-        <v>361847.63</v>
+        <v>461908</v>
       </c>
       <c r="L13" t="n">
-        <v>306599.95</v>
+        <v>409785</v>
       </c>
       <c r="M13" t="n">
-        <v>1223790.96</v>
+        <v>2815201</v>
       </c>
       <c r="N13" t="n">
-        <v>57301.66</v>
+        <v>2825</v>
       </c>
       <c r="O13" t="n">
-        <v>116586.23</v>
+        <v>8773</v>
       </c>
       <c r="P13" t="n">
-        <v>17862.71</v>
+        <v>22494</v>
       </c>
       <c r="Q13" t="n">
-        <v>470246.27</v>
+        <v>438908</v>
       </c>
       <c r="R13" t="n">
-        <v>380199.2</v>
+        <v>507213</v>
       </c>
       <c r="S13" t="n">
-        <v>5077812.76</v>
+        <v>4935732</v>
       </c>
       <c r="T13" t="n">
-        <v>462794.09</v>
+        <v>841498</v>
       </c>
       <c r="U13" t="n">
-        <v>2171720</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>387962.29</v>
-      </c>
-      <c r="C14" t="n">
-        <v>60397.86</v>
-      </c>
-      <c r="D14" t="n">
-        <v>547793.6899999999</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>243920.13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2024180.91</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22717.03</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13690756</v>
-      </c>
-      <c r="J14" t="n">
-        <v>167337.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>377984.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>341838.74</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1947107.84</v>
-      </c>
-      <c r="N14" t="n">
-        <v>64880.42</v>
-      </c>
-      <c r="O14" t="n">
-        <v>52351.85</v>
-      </c>
-      <c r="P14" t="n">
-        <v>26988.38</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>386871.72</v>
-      </c>
-      <c r="R14" t="n">
-        <v>343163.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4187507.55</v>
-      </c>
-      <c r="T14" t="n">
-        <v>512822.81</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1994929.487905</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>623319.67</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11841.28</v>
-      </c>
-      <c r="D15" t="n">
-        <v>918718.09</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>107863.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2583821.16</v>
-      </c>
-      <c r="H15" t="n">
-        <v>63766.85</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15371025.994166</v>
-      </c>
-      <c r="J15" t="n">
-        <v>216077.66</v>
-      </c>
-      <c r="K15" t="n">
-        <v>809454.5600000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>518603.14</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2299764.47</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13004.32</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-213382.64</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15671.09</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>577031.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>373465.04</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3872562.43</v>
-      </c>
-      <c r="T15" t="n">
-        <v>613125.89</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1966318.164166</v>
+        <v>2679879</v>
       </c>
     </row>
   </sheetData>
